--- a/src/main/webapp/static/staticWEB/小测模板.xlsx
+++ b/src/main/webapp/static/staticWEB/小测模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>1.二进制语言是属于（ ）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,38 @@
   </si>
   <si>
     <t>人们研制了许许多多计算机程序设计语言，其中二进制语言直接来自计算机的指令系统，与具体计算机紧密相关，所以是一种面向机器语言。面向问题语言是为了易于描述和求解某类特定领域的问题而专门设计的一种非过程语言。面向过程语言是一种能方便描述算法过程的计算机程序设计语言。有汇编语言，但没有面向汇编语言。汇编语言也是一种面向机器的语言，与机器语言比较，汇编语言用有助于记忆的符号来代表二进制代码。所以解答是A。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在C语言中，各种类型的整型数据在内存中都占2个字节。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断题(True or False)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -752,6 +784,51 @@
         <v>24</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/static/staticWEB/小测模板.xlsx
+++ b/src/main/webapp/static/staticWEB/小测模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>1.二进制语言是属于（ ）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MySQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,30 +116,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不定项选择题(Indefinite item multiple choice)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目(topic)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答案(answer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解析(resolve)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单项选择题(Single choice)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.下列哪个（些）不是数据库软件名称（ ）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,11 +156,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断题(True or False)</t>
+    <t>题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +212,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +237,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +264,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -243,18 +279,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,30 +586,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="126" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -563,7 +624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -571,7 +632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -579,7 +640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -587,31 +648,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -619,7 +680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -627,7 +688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -635,7 +696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -643,194 +704,207 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>41</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>26</v>
+      <c r="A33" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>28</v>
+      <c r="A37" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="分数" error="请输入正整数" promptTitle="分数" prompt="请输入正整数" sqref="C1 C16 C32">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/webapp/static/staticWEB/小测模板.xlsx
+++ b/src/main/webapp/static/staticWEB/小测模板.xlsx
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ABC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Outlook（它是microsoft 日程安排软件 ）其它的都是数据库软件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ADE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DESC是降序,省略ASC和DESC，默认为升序。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +197,14 @@
   </si>
   <si>
     <t>略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-|-D-|-E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-|-B-|-C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6">
@@ -610,7 +610,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -658,15 +658,15 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -714,15 +714,15 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6">
@@ -731,10 +731,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -771,26 +771,26 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -822,36 +822,36 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6">
@@ -860,42 +860,42 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
         <v>28</v>
-      </c>
-      <c r="B34" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
         <v>29</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
